--- a/images/preliminary_results_v2.xlsx
+++ b/images/preliminary_results_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amykim/Documents/Metis/Course_4_Classification/project/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1255CBA-B2D0-8241-A094-51F7389C3C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B441F7F-5957-D943-A9AD-AE5C348A147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="800" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{70F9BE87-8AAA-E74D-830F-DBFDE1D84A81}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{70F9BE87-8AAA-E74D-830F-DBFDE1D84A81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>https://www.bloomberg.com/news/articles/2015-04-28/nepal-rebuilding-cost-to-exceed-10-billion-finance-chief-says</t>
+  </si>
+  <si>
+    <t>https://globalpressjournal.com/world/rebuilding-nepal-four-years-quake/#:~:text=The%20cost%20to%20rebuild%20every,and%20gaps%20in%20assistance%20remain.</t>
+  </si>
+  <si>
+    <t>cost to rebuild house can reach up to $40,000</t>
   </si>
 </sst>
 </file>
@@ -625,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -700,6 +706,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1814,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B2C334-D6B8-FC40-AA81-F62A1120761F}">
   <dimension ref="A21:S59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1951,14 +1958,14 @@
         <v>36</v>
       </c>
       <c r="J25" s="38">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="K25" s="38">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="L25" s="40">
         <f>(K25+J25)/2</f>
-        <v>27500</v>
+        <v>21250</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.2">
@@ -1972,11 +1979,11 @@
         <v>2500</v>
       </c>
       <c r="E26" s="38">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="F26" s="39">
         <f t="shared" ref="F26:F28" si="0">(E26+D26)/2</f>
-        <v>6250</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.2">
@@ -1987,14 +1994,14 @@
         <v>41</v>
       </c>
       <c r="D27" s="38">
+        <v>5000</v>
+      </c>
+      <c r="E27" s="38">
         <v>10000</v>
-      </c>
-      <c r="E27" s="38">
-        <v>25000</v>
       </c>
       <c r="F27" s="39">
         <f t="shared" si="0"/>
-        <v>17500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2005,14 +2012,14 @@
         <v>40</v>
       </c>
       <c r="D28" s="38">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="E28" s="38">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="F28" s="40">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>25000</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>45</v>
@@ -2065,7 +2072,7 @@
       </c>
       <c r="J30" s="61">
         <f>I30*$L25</f>
-        <v>14238400000</v>
+        <v>11002400000</v>
       </c>
       <c r="K30" s="60">
         <f>SUM(E34:E36)</f>
@@ -2099,7 +2106,7 @@
       </c>
       <c r="J31" s="59">
         <f>SUM(J29:J30)</f>
-        <v>14350160000</v>
+        <v>11114160000</v>
       </c>
       <c r="K31" s="58">
         <f>SUM(K28:K30)</f>
@@ -2169,7 +2176,7 @@
       </c>
       <c r="L33" s="57">
         <f>J31-L31</f>
-        <v>13452963500</v>
+        <v>10216963500</v>
       </c>
       <c r="O33" s="35"/>
       <c r="P33" s="26"/>
@@ -2187,7 +2194,7 @@
       </c>
       <c r="D34" s="56">
         <f t="shared" si="1"/>
-        <v>193306250</v>
+        <v>115983750</v>
       </c>
       <c r="E34" s="26">
         <f>11106+2595+8877+11891+74176</f>
@@ -2195,7 +2202,7 @@
       </c>
       <c r="F34" s="56">
         <f t="shared" si="1"/>
-        <v>679031250</v>
+        <v>407418750</v>
       </c>
       <c r="P34" s="27"/>
       <c r="Q34" s="57"/>
@@ -2212,7 +2219,7 @@
       </c>
       <c r="D35" s="56">
         <f t="shared" si="1"/>
-        <v>826210000</v>
+        <v>354090000</v>
       </c>
       <c r="E35" s="26">
         <f>4143+1085+7433+16239+117636</f>
@@ -2220,7 +2227,11 @@
       </c>
       <c r="F35" s="56">
         <f t="shared" si="1"/>
-        <v>2564380000</v>
+        <v>1099020000</v>
+      </c>
+      <c r="L35" s="64">
+        <f>J31/L31-1</f>
+        <v>11.38765420952935</v>
       </c>
       <c r="S35" s="57"/>
     </row>
@@ -2234,7 +2245,7 @@
       </c>
       <c r="D36" s="61">
         <f t="shared" si="1"/>
-        <v>16485712500</v>
+        <v>10990475000</v>
       </c>
       <c r="E36" s="60">
         <f>3627+719+4371+11912+199080</f>
@@ -2242,7 +2253,10 @@
       </c>
       <c r="F36" s="61">
         <f t="shared" si="1"/>
-        <v>8239087500</v>
+        <v>5492725000</v>
+      </c>
+      <c r="I36" t="s">
+        <v>89</v>
       </c>
       <c r="S36" s="57"/>
     </row>
@@ -2253,7 +2267,7 @@
       </c>
       <c r="D37" s="59">
         <f t="shared" ref="D37:F37" si="2">SUM(D32:D36)</f>
-        <v>17562630250</v>
+        <v>11517950250</v>
       </c>
       <c r="E37" s="58">
         <f>SUM(E32:E36)</f>
@@ -2261,12 +2275,15 @@
       </c>
       <c r="F37" s="59">
         <f t="shared" si="2"/>
-        <v>11635545250</v>
+        <v>7152210250</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D38" s="57"/>
       <c r="F38" s="57"/>
+      <c r="I38" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C39" s="27"/>
@@ -2276,10 +2293,16 @@
       </c>
       <c r="F39" s="57">
         <f>D37-F37</f>
-        <v>5927085000</v>
+        <v>4365740000</v>
       </c>
       <c r="I39" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F41" s="64">
+        <f>D37/F37-1</f>
+        <v>0.61040431522549277</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
